--- a/biology/Botanique/Huile_à_la_truffe/Huile_à_la_truffe.xlsx
+++ b/biology/Botanique/Huile_à_la_truffe/Huile_à_la_truffe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Huile_%C3%A0_la_truffe</t>
+          <t>Huile_à_la_truffe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’huile à la truffe est un ingrédient de cuisine destiné à donner aux aliments préparés un parfum comparable à celui de la truffe. Alors que la truffe est un aliment disponible de façon saisonnière et particulièrement coûteux, l'huile à la truffe est disponible en toute saison et est considérablement moins chère que la truffe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Huile_%C3%A0_la_truffe</t>
+          <t>Huile_à_la_truffe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les huiles à la truffe sont préparées à partir d'huile neutre (pépin de raisin ou tournesol, par exemple) et d'ingrédients odorants. C'est cette extraction qui est mélangée ensuite à l'huile d'olive. Deux catégories sont présentes à la vente. Premièrement, certaines huiles à la truffe sont réalisées à l'aide des résidus de truffe occasionnés lors de leur collecte ou préparation pour la vente. Deuxièmement, d'autres huiles sont préparées à l'aide de composés organiques de synthèse de même nature que ceux présents dans la truffe, en particulier le bis(méthylthio)méthane[1]. Les secondes sont considérablement moins chères.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les huiles à la truffe sont préparées à partir d'huile neutre (pépin de raisin ou tournesol, par exemple) et d'ingrédients odorants. C'est cette extraction qui est mélangée ensuite à l'huile d'olive. Deux catégories sont présentes à la vente. Premièrement, certaines huiles à la truffe sont réalisées à l'aide des résidus de truffe occasionnés lors de leur collecte ou préparation pour la vente. Deuxièmement, d'autres huiles sont préparées à l'aide de composés organiques de synthèse de même nature que ceux présents dans la truffe, en particulier le bis(méthylthio)méthane. Les secondes sont considérablement moins chères.
 </t>
         </is>
       </c>
